--- a/biology/Botanique/Afroligusticum/Afroligusticum.xlsx
+++ b/biology/Botanique/Afroligusticum/Afroligusticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afroligusticum est un genre de plantes de la famille des Apiacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 janvier 2018) :
 Afroligusticum aculeolatum (Engl.) Winter
 Afroligusticum claessensii (C. Norman) Winter
 Afroligusticum elgonense (H. Wolff) Winter
@@ -528,13 +542,13 @@
 Afroligusticum townsendii (A. Charpin &amp; J. Fernández Casas) Winter
 Afroligusticum volkensii (Engl.) Winter
 Afroligusticum wilmsianum (H. Wolff) Winter
-Selon NCBI  (19 janvier 2018)[3] :
+Selon NCBI  (19 janvier 2018) :
 Afroligusticum aculeolatum
 Afroligusticum elgonense
 Afroligusticum elliotii
 Afroligusticum petitianum
 Afroligusticum piovanii
-Selon The Plant List            (19 janvier 2018)[4] :
+Selon The Plant List            (19 janvier 2018) :
 Afroligusticum aculeolatum (Engl.) P.J.D.Winter
 Afroligusticum claessensii (C.Norman) P.J.D.Winter
 Afroligusticum elgonense (H.Wolff) P.J.D.Winter
@@ -548,7 +562,7 @@
 Afroligusticum townsendii (Charpin &amp; Fern.Casas) P.J.D.Winter
 Afroligusticum volkensii (Engl.) P.J.D.Winter
 Afroligusticum wilmsianum (H.Wolff) P.J.D.Winter
-Selon Tropicos                                           (19 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Afroligusticum aculeolatum (Engl.) P.J.D. Winter
 Afroligusticum claessensii (C. Norman) P.J.D. Winter
 Afroligusticum elgonense P.J.D. Winter
